--- a/需求文档v1.2.xlsx
+++ b/需求文档v1.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="204">
   <si>
     <t>用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,10 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,11 +526,255 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>current_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（200）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家编号（外键）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家分类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_bustype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bussType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderBusiness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价表evaluation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前订单商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前订单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级分类编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_type_pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typePid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eva_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（40）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eva_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前订单order_business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>order_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>current_user</t>
+    <t>commodity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliveryTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comBus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_business</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -542,83 +782,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>total_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>order_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>order_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>user_id</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -626,11 +810,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评价编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价内容</t>
+    <t>evaId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -638,179 +818,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（200）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商家编号（外键）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comBus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商家分类名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus_type_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivery_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliveryTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus_bustype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bussType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_business</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderBusiness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商家编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价表evaluation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前订单商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前订单编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联合主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级分类编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus_type_pid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typePid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eva_grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>eva_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（40）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaImg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eva_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前订单order_business</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commodity_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1020,25 +1028,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1051,6 +1047,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1359,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1369,17 +1377,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -1525,22 +1533,22 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
@@ -1554,7 +1562,7 @@
         <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>53</v>
@@ -1578,9 +1586,11 @@
         <v>59</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
@@ -1596,10 +1606,10 @@
         <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>45</v>
@@ -1620,10 +1630,10 @@
         <v>50</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1667,7 +1677,7 @@
         <v>80</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1684,10 +1694,10 @@
         <v>60</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>62</v>
@@ -1708,10 +1718,10 @@
         <v>67</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1728,7 +1738,7 @@
         <v>68</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>70</v>
@@ -1752,49 +1762,49 @@
         <v>70</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="F17" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="F17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -1802,25 +1812,25 @@
         <v>79</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1828,7 +1838,7 @@
         <v>80</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>72</v>
@@ -1840,13 +1850,13 @@
         <v>9</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -1854,25 +1864,25 @@
         <v>81</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1883,7 +1893,7 @@
         <v>80</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1898,83 +1908,83 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="I24" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="I24" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -1982,61 +1992,61 @@
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="G27" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="F28" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="K28" s="19"/>
-    </row>
-    <row r="29" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J28" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2050,43 +2060,44 @@
         <v>10</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="31" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="14" t="s">
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="31" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-    </row>
-    <row r="32" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>124</v>
@@ -2106,197 +2117,184 @@
       <c r="J32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="E33" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="G33" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="C34" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="D34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="G34" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="H34" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="I34" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="J34" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="E35" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="F35" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="G35" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="J35" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J34" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-    </row>
-    <row r="35" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
+    </row>
+    <row r="36" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B36" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="C36" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-    </row>
-    <row r="38" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
@@ -2304,39 +2302,39 @@
         <v>9</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>69</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2344,7 +2342,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>10</v>
@@ -2353,20 +2351,20 @@
         <v>69</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A31:J31"/>
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="J28:K29"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求文档v1.2.xlsx
+++ b/需求文档v1.2.xlsx
@@ -1031,6 +1031,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1053,12 +1059,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1367,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1769,12 +1769,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="F17" s="11" t="s">
         <v>87</v>
       </c>
@@ -1918,11 +1918,11 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
@@ -2041,10 +2041,10 @@
       <c r="I28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="K28" s="15"/>
+      <c r="K28" s="17"/>
     </row>
     <row r="29" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
@@ -2071,22 +2071,22 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
     </row>
     <row r="31" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
